--- a/biology/Médecine/Malformation_de_Dandy-Walker/Malformation_de_Dandy-Walker.xlsx
+++ b/biology/Médecine/Malformation_de_Dandy-Walker/Malformation_de_Dandy-Walker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La malformation de Dandy-Walker est une malformation du système nerveux central regroupant :
 kyste de la fosse cérébrale postérieure en communication avec le IVème ventricule
@@ -514,7 +526,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des variations anatomiques de cette malformation qui sont désignées comme « complexe Dandy-Walker » ou « variant Dandy-Walker ».
 </t>
@@ -545,7 +559,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1 pour 100 000 naissances vivantes. Elle est plus élevée chez le garçon (1,24 pour 100 000) que chez la fille (0,78 pour 100 000).
 </t>
@@ -578,18 +594,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Échographique
-L’étude de la fosse postérieure du fœtus fait partie des items obligatoires au cours de l’échographie morphologique du deuxième trimestre de la grossesse. Le diagnostic ne peut être fait qu'à partir de la 18e semaine d'aménorrhée, lorsque le développement du vermis cérébelleux est achevé.
+          <t>Échographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’étude de la fosse postérieure du fœtus fait partie des items obligatoires au cours de l’échographie morphologique du deuxième trimestre de la grossesse. Le diagnostic ne peut être fait qu'à partir de la 18e semaine d'aménorrhée, lorsque le développement du vermis cérébelleux est achevé.
 La taille de la fosse postérieure ne doit pas dépasser 10 mm.
 La découverte d’une malformation de Dandy-Walker doit faire rechercher d’autres malformations associées comme :
 Agénésie du corps calleux
 Anomalie de la giration
 Cardiopathie congénitale
-Anomalie de la face ou des mains
-Étiologique
-L’interrogatoire recherchera la prise de médicaments chez la mère.
-La recherche d’une étiologie nécessite la réalisation du caryotype fœtal et la réalisation d’une étude du cerveau fœtal par imagerie à résonance magnétique.
-Les investigations à la recherche d’infection virale maternelle et fœtale seront faites.</t>
+Anomalie de la face ou des mains</t>
         </is>
       </c>
     </row>
@@ -614,13 +631,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étiologique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L’interrogatoire recherchera la prise de médicaments chez la mère.
+La recherche d’une étiologie nécessite la réalisation du caryotype fœtal et la réalisation d’une étude du cerveau fœtal par imagerie à résonance magnétique.
+Les investigations à la recherche d’infection virale maternelle et fœtale seront faites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Maladie génétique
-Lissenencéphalie de Warburg
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maladie génétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lissenencéphalie de Warburg
 Syndrome de Coffin-Siris
 Syndrome de Joubert
 Syndrome de Mohr
@@ -630,53 +690,7 @@
 Syndrome de Smith-Lemli-Opitz
 PHACE Association
 Syndrome d'Ellis-Van Creveld
-Syndrome de Goldston
-Maladie chromosomique
-De nombreuses anomalies chromosomiques peuvent être responsables de cette malformation comme :
-Trisomie 13
-Trisomie 18
-Triploïdie
-Maladie infectieuse
-Rubéole
-Toxoplasmose
-Cytomégalovirus
-Tératogène
-Alcool
-Anti-vitamine K
-Isotrétinoïne
-Maladie maternelle
-Diabète</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Malformation_de_Dandy-Walker</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pronostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pronostic dépend bien entendu de l’étiologie. Lorsque la malformation apparaît isolée et l’enquête étiologique négative, 50 % des fœtus affectés ont un développement post natal normal
-</t>
+Syndrome de Goldston</t>
         </is>
       </c>
     </row>
@@ -701,15 +715,201 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maladie chromosomique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>De nombreuses anomalies chromosomiques peuvent être responsables de cette malformation comme :
+Trisomie 13
+Trisomie 18
+Triploïdie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maladie infectieuse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rubéole
+Toxoplasmose
+Cytomégalovirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tératogène</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alcool
+Anti-vitamine K
+Isotrétinoïne</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maladie maternelle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Diabète</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pronostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pronostic dépend bien entendu de l’étiologie. Lorsque la malformation apparaît isolée et l’enquête étiologique négative, 50 % des fœtus affectés ont un développement post natal normal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malformation_de_Dandy-Walker</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Site en français de renseignement sur les maladies rares et les médicaments orphelins
 Fetology Edition Mc Graw Hill
 Site personnel sur le syndrome de Dandy-Walker
-[1]Ce site spécifique au Dandy-Walker avec des informations, des témoignages, des parcours fascinants et un forum pour un dialogue live et des échanges aussi bien en français qu'en anglais.
+Ce site spécifique au Dandy-Walker avec des informations, des témoignages, des parcours fascinants et un forum pour un dialogue live et des échanges aussi bien en français qu'en anglais.
 Dandy-Walker Alliance, une association aux États-Unis fondée par une famille avec un enfant DW.</t>
         </is>
       </c>
